--- a/01-Excel/01-Activites/3/Activities/04-Ins_ScatterPlot/Solved/ScatterPlot.xlsx
+++ b/01-Excel/01-Activites/3/Activities/04-Ins_ScatterPlot/Solved/ScatterPlot.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bradyrothrock/Trilogy/Curriculum Development/Pilots/DataViz-Lesson-Plans/01-Lesson-Plans/01-Excel/3/Activities/04-Ins_ScatterPlot/Solved/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dcorless/Documents/coding-boot-camp/DataViz-Lesson-Plans/01-Lesson-Plans/01-Excel/3/Activities/04-Ins_ScatterPlot/Solved/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0D47F8F-A4D9-2643-AA13-30DFAD2A722E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D266200B-83EC-034E-9654-9F2E1528238A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="14380" windowHeight="14080" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="14380" windowHeight="14080" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Normal Trend" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
